--- a/Pratis Backlog.xlsx
+++ b/Pratis Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2b65da726c59086/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6218919-F4DA-4BDB-881B-B6CE34A6D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18914251-96B4-4BD7-B2FC-2B161ECDEF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2925" windowWidth="29040" windowHeight="15720" xr2:uid="{4DD5DBFF-8573-4D9E-BCB2-43F13424CAB7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Features</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t xml:space="preserve">As a user, I want a new box to be added to an assignee of my choice. </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Data Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Data model so that each project has activities instead of only features. </t>
+  </si>
+  <si>
+    <t>Update Data model so that each user is part of a project, even if they have no currently assigned activity</t>
   </si>
 </sst>
 </file>
@@ -81,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,28 +410,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DD7266-76CA-43CD-8DA7-C12BF208D0A6}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45319</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pratis Backlog.xlsx
+++ b/Pratis Backlog.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18914251-96B4-4BD7-B2FC-2B161ECDEF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAAA13E-9FFB-4231-8066-E66DDEE534B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2925" windowWidth="29040" windowHeight="15720" xr2:uid="{4DD5DBFF-8573-4D9E-BCB2-43F13424CAB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Product Road Map" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Features</t>
   </si>
@@ -42,22 +43,133 @@
     <t>User Story</t>
   </si>
   <si>
-    <t>box Behaviour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user, I want a new box to be added to an assignee of my choice. </t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Data Model</t>
   </si>
   <si>
-    <t xml:space="preserve">Update Data model so that each project has activities instead of only features. </t>
-  </si>
-  <si>
     <t>Update Data model so that each user is part of a project, even if they have no currently assigned activity</t>
+  </si>
+  <si>
+    <t>Date Completed</t>
+  </si>
+  <si>
+    <t>Box Behaviour</t>
+  </si>
+  <si>
+    <t>As a user, I want a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, when creating a new user story, I want to pick an already created user story as a dependency or select a date. </t>
+  </si>
+  <si>
+    <t>Add User Story Form</t>
+  </si>
+  <si>
+    <t>As a user, I want to name a user story</t>
+  </si>
+  <si>
+    <t>As a user, I want designate an assignee</t>
+  </si>
+  <si>
+    <t>As a user, I want a new box to be added to the correct assignee column.</t>
+  </si>
+  <si>
+    <t>As a user, I want to select a feature or create a feature if one is not available</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>The purpose is to say that another user story has to be finished OR a date. This is to represent external factors that might impact when a team can complete a story</t>
+  </si>
+  <si>
+    <t>We want an option on the drop down to say "create new feature" and pop out the create feature form.</t>
+  </si>
+  <si>
+    <t>Add Feature Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to add a description to a user story so that I can understand more about the task. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want assign a backlog priorty to a user story so that the visualization knows how to prioritize the user story. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to add points to a user story so that the user story can have the correct area in visualization. </t>
+  </si>
+  <si>
+    <t>As a user, I want add a feature description.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Features do not have points assigned to them. We may at some point have summary statistics on features based on user story assigned but for right now, it's just a way to visually group user storys. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Data model so that each project includes both activities and features. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want an easy to use pop up form that is visually pleasing . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be a pop up that is center screen that blurs the background a bit to give the pop up the feeling of being closer. Facebook does this when you open a post. When creating a new user story or opening a user story to examine it's details should be the same mechanism. </t>
+  </si>
+  <si>
+    <t>As a user, I want name my features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want  feature so my user stories can be visually grouped. </t>
+  </si>
+  <si>
+    <t>Develop back end to hold project and user information</t>
+  </si>
+  <si>
+    <t>Develop front end to visualize project and user information</t>
+  </si>
+  <si>
+    <t>Develop ability for user to enter data and update visualization</t>
+  </si>
+  <si>
+    <t>Develop ability for user to pull data via api from another source</t>
+  </si>
+  <si>
+    <t>Add in payment options</t>
+  </si>
+  <si>
+    <t>Login and user profiles</t>
+  </si>
+  <si>
+    <t>Go live</t>
+  </si>
+  <si>
+    <t>user story</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>As a user, I want my user stories to have an intuitive visual representation so that my team's backlog is obvious</t>
+  </si>
+  <si>
+    <t>As a user, I want my user stories to have consistent area to effort ratio.</t>
+  </si>
+  <si>
+    <t>Create Team</t>
+  </si>
+  <si>
+    <t>As a user creating a project, I want to be able to add team member and give them a points quota.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a new project is created, the user should be prompted to add team members and assign them a percentage of the team's total work. </t>
+  </si>
+  <si>
+    <t>As a user creating a project, I want to name the project</t>
+  </si>
+  <si>
+    <t>As a user creating a project, I want to add a description for the project</t>
+  </si>
+  <si>
+    <t>As a user creating a project, I want to add assign team member's output</t>
   </si>
 </sst>
 </file>
@@ -73,12 +185,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,9 +211,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,61 +546,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DD7266-76CA-43CD-8DA7-C12BF208D0A6}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="104.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>45321</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>45321</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
         <v>45319</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>45321</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>45321</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CD8374-99C0-427E-8E09-0E32297EC5BC}">
+  <dimension ref="A2:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Pratis Backlog.xlsx
+++ b/Pratis Backlog.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAAA13E-9FFB-4231-8066-E66DDEE534B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE35A2A-12BD-4FAF-8F7B-94F8000E5560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2925" windowWidth="29040" windowHeight="15720" xr2:uid="{4DD5DBFF-8573-4D9E-BCB2-43F13424CAB7}"/>
+    <workbookView xWindow="-28920" yWindow="-2925" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4DD5DBFF-8573-4D9E-BCB2-43F13424CAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Product Road Map" sheetId="2" r:id="rId2"/>
+    <sheet name="Website User Journey" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -247,6 +248,3278 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8864E6-DB1A-902D-DF92-8FCCFA34DD68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="838200"/>
+          <a:ext cx="1123950" cy="2276475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Login</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> page</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Username</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Password</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Login</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Create account</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Guest account</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99227634-2315-D846-7725-844DD7A4343F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="415925"/>
+          <a:ext cx="1190625" cy="1498600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Guest Account</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71CB666-55FF-4FA3-AF88-56AAF084CF6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="2968625"/>
+          <a:ext cx="1200150" cy="3403600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Account</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A35BA0-6982-4F76-9206-10048D86DACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="857250"/>
+          <a:ext cx="1190625" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Project</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>412749</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A8BCDB-7B66-6010-6925-C047904ACF32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4070349" y="771525"/>
+          <a:ext cx="2463801" cy="1165225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD685CE-55E5-1EF4-1C18-E2FCB81EBF05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5848349" y="1936750"/>
+          <a:ext cx="685801" cy="1622424"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523873</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556047EE-8AF0-6D4E-0DC7-E90C5C095F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962273" y="657225"/>
+          <a:ext cx="1104901" cy="231774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Create Project</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>549274</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5EDCEE-5D44-4902-8A5F-2D8CAC610DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4816474" y="3438524"/>
+          <a:ext cx="1031875" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Create Project</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467D7990-5751-4246-9E26-5A85237E5DF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="1162050"/>
+          <a:ext cx="1073150" cy="244475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Import backlog</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0B7B9C-54FE-4E2C-B70C-D25FC3B173AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="2419350"/>
+          <a:ext cx="914400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>77788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77F831C-C8AF-E343-1DE0-F8DFA055AA8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2190750" y="1163638"/>
+          <a:ext cx="711200" cy="1349375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5A52BA-3581-4368-B637-07908B38E6A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="2228850"/>
+          <a:ext cx="914400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD85B687-50AD-4201-89B3-864094DEDE12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="2419350"/>
+          <a:ext cx="1200150" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>New Account</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Username</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Password</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Password again</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4688FAC2-506D-9993-BF80-0A993596CCBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="2513013"/>
+          <a:ext cx="654050" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCB3609-DE98-447F-9ECF-F79F4087577D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="3454400"/>
+          <a:ext cx="1095375" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Create Account</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B26473-9FCA-8E24-5E7E-E8204AB1B717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="3554413"/>
+          <a:ext cx="733425" cy="1116012"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4032DD6-D945-402B-88EA-BF62B6971382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="3438525"/>
+          <a:ext cx="1193800" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB2C88B-3BA9-461D-979D-80B0532C4054}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3756024"/>
+          <a:ext cx="1257300" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Button that leads to new page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1174F4-4067-E3A5-A17C-C67E24A2650D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4305300"/>
+          <a:ext cx="1333500" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Description of page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EFC398C-255B-41B8-9192-22327D9D9A21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="1120775"/>
+          <a:ext cx="1158875" cy="717550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>faded example backlog behind buttons</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B13FF097-FFBD-4A27-ABE9-F7560C60DAFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="4152900"/>
+          <a:ext cx="1168400" cy="663575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>faded example backlog behind buttons</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A553A1-2D6D-4E0B-9B17-4E2980B74C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="4724400"/>
+          <a:ext cx="1168400" cy="1549400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> user's project backlogs should be miniaturized but selectable and if the account is new and doesn't have any, then keep the same example backlog behind a button for create project. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A1D304-B785-4846-84F2-0DBA2B39E16C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="2292350"/>
+          <a:ext cx="1162050" cy="688975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>faded example backlog behind buttons</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F35C33-8EA9-4544-AD9C-4B98DFEF348C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8378825" y="352424"/>
+          <a:ext cx="1190625" cy="2946400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Import options</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E5DD01-7D07-FD48-5B92-3B4300673B9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7635875" y="1285875"/>
+          <a:ext cx="742950" cy="539749"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B96FCF-06B1-4582-8158-70B06ED1AB30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="790575"/>
+          <a:ext cx="1076325" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Asana</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31181080-817B-4A28-B5EA-3F770F55DCBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8435975" y="1263650"/>
+          <a:ext cx="1076325" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Excel</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A251BDD-01FA-463D-9EC0-1838CFA7985B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="1711325"/>
+          <a:ext cx="1073150" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Skip Import </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rectangle 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB11C063-64CB-4D32-ABC6-C6154CAE1F8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648950" y="139700"/>
+          <a:ext cx="1063625" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Import through Asana. (Need further research)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD48E146-06A8-A48B-D743-3D109639B232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="3"/>
+          <a:endCxn id="70" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9505950" y="584200"/>
+          <a:ext cx="1143000" cy="322263"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rectangle 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342DB77F-558B-4481-9DD0-32D3ACC604A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10664825" y="1120775"/>
+          <a:ext cx="1057275" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Import through Excel. (Need further research)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA93561C-57B8-46AE-A3DA-0B9F52B9535A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="3"/>
+          <a:endCxn id="73" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9515475" y="1385888"/>
+          <a:ext cx="1149350" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626B922B-0060-41C6-BD98-BC473300DF08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12401549" y="1152525"/>
+          <a:ext cx="1647825" cy="3019425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Project Details</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Project Name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Project Admin</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Project members (autopopulate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> if data is imported)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799E149D-4A92-467A-B611-EE01C2848C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="3"/>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9534525" y="1833563"/>
+          <a:ext cx="2867024" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Straight Arrow Connector 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33676F18-951D-41CE-9A11-797B0956A944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="3"/>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11725275" y="1563688"/>
+          <a:ext cx="676274" cy="1098550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Arrow Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CECE70-9473-4829-9D75-61BC66C245E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="3"/>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11712575" y="584200"/>
+          <a:ext cx="688974" cy="2078038"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Rectangle 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCB5575-60AF-4C3F-A084-808D66651B44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12668250" y="2559050"/>
+          <a:ext cx="1066800" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Create Project</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>460374</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Straight Arrow Connector 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251BD7A6-B8A2-487E-BE6C-B8DE3067E2C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="98" idx="3"/>
+          <a:endCxn id="102" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13735050" y="2681288"/>
+          <a:ext cx="1355724" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>460374</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="Rectangle 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF736120-A454-4B5F-8FCC-FFE71EEA2FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15090774" y="3054350"/>
+          <a:ext cx="1644650" cy="2546350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Actual Pratis Visualization</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="Rectangle 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A16917-4E4C-4B88-9264-A49815DD8B05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4816475" y="3797300"/>
+          <a:ext cx="1038225" cy="231775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>User Project</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>460374</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="Straight Arrow Connector 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E252B603-3B27-4986-8A38-2F1A662CF157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="106" idx="3"/>
+          <a:endCxn id="102" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="3913188"/>
+          <a:ext cx="9232899" cy="415925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>107949</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>565149</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Rectangle 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680DED1B-6802-4742-B11E-8A1488ED55A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15347949" y="3390900"/>
+          <a:ext cx="1066800" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Log</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> out</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="Straight Arrow Connector 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8DAF37-3EB4-453A-B48D-A18CC7977D2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="121" idx="3"/>
+          <a:endCxn id="123" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16411574" y="3281363"/>
+          <a:ext cx="1171576" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="Rectangle 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BB9BE2-CEE0-432F-825E-71AEF832E80C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17583150" y="3143250"/>
+          <a:ext cx="1644650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Log out page</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>107949</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>565149</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="Rectangle 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E6D698-B6BD-4C0D-AC7C-7328514C578C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15347949" y="3724275"/>
+          <a:ext cx="1066800" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Create Account</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Connector: Elbow 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9369452A-E9BB-A152-4032-7325946B44C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="128" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16411574" y="3841750"/>
+          <a:ext cx="609601" cy="2740025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Connector: Elbow 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1509228-157B-EBF4-4E7C-EF36CEA4ABE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2330450" y="6553201"/>
+          <a:ext cx="14700250" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="Connector: Elbow 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB120009-F16B-D266-26C8-2CCEFF1D8E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1188244" y="4934745"/>
+          <a:ext cx="2782887" cy="530225"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="Rectangle 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685C0678-815C-4771-9689-9CC93051D03C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8391525" y="2562225"/>
+          <a:ext cx="1162050" cy="682625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Generic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Business people at a table all looking at a screen. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="Rectangle 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36C702F-C48E-4844-A20C-D95D621F5E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12401550" y="2933699"/>
+          <a:ext cx="1657350" cy="1209676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Faded</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> behind the pop up information should be their actual board.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,10 +3819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DD7266-76CA-43CD-8DA7-C12BF208D0A6}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,83 +4065,59 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
-        <v>45322</v>
-      </c>
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>45319</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
-        <v>45322</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
-        <v>45322</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
-        <v>45322</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
-        <v>45319</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -925,4 +4174,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC63AD19-F50E-4A59-A956-D09DA3578920}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Pratis Backlog.xlsx
+++ b/Pratis Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE35A2A-12BD-4FAF-8F7B-94F8000E5560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4FFEFF-F82B-44C9-B74F-40FF6C67EE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2925" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4DD5DBFF-8573-4D9E-BCB2-43F13424CAB7}"/>
+    <workbookView xWindow="-28920" yWindow="-2925" windowWidth="29040" windowHeight="15720" xr2:uid="{4DD5DBFF-8573-4D9E-BCB2-43F13424CAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Features</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Box Behaviour</t>
   </si>
   <si>
-    <t>As a user, I want a</t>
-  </si>
-  <si>
     <t xml:space="preserve">As a user, when creating a new user story, I want to pick an already created user story as a dependency or select a date. </t>
   </si>
   <si>
@@ -171,6 +168,54 @@
   </si>
   <si>
     <t>As a user creating a project, I want to add assign team member's output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want my user stories to stack vertically so that the most urgent are near the bottom of the page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want the entire project board to feel connected and not have any horizontal gaps. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want the dates to be placed vertically alongside the project area. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will give the user an idea of when work will be completed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We want it to be visually obvious which user stories require more and which require less work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We want it to be visually obvious which user stories are going to be worked on next. This creates a visual clue as to the backlog priority. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We want it to be visually obvious which user will be completing which user story. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We want the assignee columns to be immediate adjuscent to make it easier to compare across team members. </t>
+  </si>
+  <si>
+    <t>As a user, I want my user stories to always stack higher vertically than stories or external date they depend on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a story can't be worked on until another story is complete then we want to make sure they do not overlap in our visualization. If an external deadline, such as outside team deliverable, needs to happen first then we need to make sure that the user story is not planned to happen first. </t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to edit the fields and characteristics of a story that's already created.</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to clone an already created story.</t>
+  </si>
+  <si>
+    <t>This should copy everything but iterate the backlog priority value by 1</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to delete a user story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This should include a pop up warning the data is unrecoverable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This should open up the "add user story" form. </t>
   </si>
 </sst>
 </file>
@@ -3819,10 +3864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DD7266-76CA-43CD-8DA7-C12BF208D0A6}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3836,10 +3881,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3853,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -3867,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -3886,13 +3931,13 @@
         <v>45322</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3900,10 +3945,10 @@
         <v>45322</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3911,10 +3956,10 @@
         <v>45322</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3922,10 +3967,10 @@
         <v>45322</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3936,13 +3981,13 @@
         <v>45322</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3950,13 +3995,13 @@
         <v>45322</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -3964,10 +4009,10 @@
         <v>45322</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -3975,10 +4020,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -3986,13 +4031,13 @@
         <v>45322</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -4000,10 +4045,10 @@
         <v>45322</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -4011,10 +4056,10 @@
         <v>45322</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -4022,103 +4067,188 @@
         <v>45322</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>45322</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>45322</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>45322</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>45322</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>45322</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="C24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>45322</v>
+        <v>45329</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>45322</v>
+        <v>45329</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>45329</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>45329</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>45329</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>45329</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>45319</v>
+        <v>45329</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>45329</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>45329</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4138,37 +4268,37 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4180,8 +4310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC63AD19-F50E-4A59-A956-D09DA3578920}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
